--- a/summarised_by_zone.xlsx
+++ b/summarised_by_zone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.822174970107612</v>
+        <v>6.82416514126542</v>
       </c>
     </row>
     <row r="3">
@@ -462,37 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.334256410256411</v>
+        <v>6.337811704834606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>TRI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.397777777777778</v>
+        <v>6.584854661467564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>ZSAES</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.582916709118695</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ZSAES</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.218057553956834</v>
+        <v>6.323579234972677</v>
       </c>
     </row>
   </sheetData>

--- a/summarised_by_zone.xlsx
+++ b/summarised_by_zone.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.82416514126542</v>
+        <v>7.01924881697302</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.337811704834606</v>
+        <v>6.463987206823028</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.584854661467564</v>
+        <v>6.737655293088364</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.323579234972677</v>
+        <v>6.626128813559323</v>
       </c>
     </row>
   </sheetData>
